--- a/Q&A_Bakie.xlsx
+++ b/Q&A_Bakie.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phuc Truong\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Ky7\Bakie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Danh sách câu hỏi lấy ý kiến người dùng</t>
   </si>
@@ -95,15 +95,26 @@
     <t>Bạn có thấy việc thông báo chi phí làm một món bánh là cần thiết hay không ?</t>
   </si>
   <si>
-    <t>Việc đưa ra danh sách các công thức được mọi người sử dụng nhiều nhát hàng tuần có cần thiết không ?</t>
-  </si>
-  <si>
-    <t>Bạn có thấy việc cho người dùng đăng ký tài khoản sử dụng ứng dụng là hợp lý hay không: 
-- Với người sử dụng đã được cấp quyền sử dụng hệ thống, hệ thống giao diện người dùng cho phép thực hiện các chức năng: XEM các công thức đã có trên hệ thống,TẠO MỚI, SỬA, XÓA ghi chú cho từng công thức, ĐÁNH GIÁ các công thức......; 
-- Với người sử dụng chưa được cấp quyền sử dụng hệ thống, hệ thống giao diện người dùng cho phép thực hiện chức năng: XEM các công thức đã có trên hệ thống.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Với mỗi tài khoản đăng ký thì tài khoản đó có thể đươc lựa chọn </t>
+    <t>Việc đưa ra danh sách các công thức được mọi người sử dụng nhiều nhất hàng tuần có cần thiết không ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Việc người dùng đã đăng ký tài khoản có thể chỉnh sửa thông tin cá nhân có cần thiết không ? </t>
+  </si>
+  <si>
+    <t>Việc người dùng đã đăng ký tài khoản có thể thêm ghi chú vào từng công thức có cần thiết không ?</t>
+  </si>
+  <si>
+    <t>Việc người dùng đã đăng ký tài khoản có thể đánh giá các công thức là có cần thiết không ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Với người sử dụng đã được cấp quyền sử dụng hệ thống, hệ thống giao diện người dùng cho phép thực hiện các chức năng: XEM các công thức đã có trên hệ thống,TẠO MỚI, SỬA, XÓA ghi chú cho từng công thức, ĐÁNH GIÁ các công thức......; 
+</t>
+  </si>
+  <si>
+    <t>- Với người sử dụng chưa được cấp quyền sử dụng hệ thống, hệ thống giao diện người dùng cho phép thực hiện chức năng: XEM các công thức đã có trên hệ thống.</t>
+  </si>
+  <si>
+    <t>Bạn có thấy việc cho người dùng đăng ký tài khoản sử dụng ứng dụng là hợp lý hay không ?</t>
   </si>
 </sst>
 </file>
@@ -154,12 +165,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -442,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N19"/>
+  <dimension ref="A2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,12 +676,12 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -682,12 +696,10 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
+    <row r="14" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -702,12 +714,10 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>25</v>
+    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -722,11 +732,13 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -740,11 +752,13 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -758,11 +772,13 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -776,11 +792,13 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -794,7 +812,44 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Q&A_Bakie.xlsx
+++ b/Q&A_Bakie.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Ky7\Bakie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\Documents\GitHub\Bakie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Danh sách câu hỏi lấy ý kiến người dùng</t>
   </si>
@@ -115,6 +115,32 @@
   </si>
   <si>
     <t>Bạn có thấy việc cho người dùng đăng ký tài khoản sử dụng ứng dụng là hợp lý hay không ?</t>
+  </si>
+  <si>
+    <t>Nhắc đến một phần mềm giúp bạn làm bánh, bạn nghĩ sẽ phải có những cái gì?</t>
+  </si>
+  <si>
+    <t>Để làm 1 chiếc bánh sinh nhật hay 1 loại bánh mà bạn thích, bạn cần những cái gì để có thể làm ra nó?</t>
+  </si>
+  <si>
+    <t>Việc chia các món bánh theo từng loại bánh có giúp bạn dễ dàng tìm kiếm chúng không?</t>
+  </si>
+  <si>
+    <t>Việc tính toán giá cả từng nguyên liệu để làm bánh có hợp lý hay không?</t>
+  </si>
+  <si>
+    <t>Để tìm kiếm 1 món bánh bạn muốn tìm kiếm theo cách nào? 
+- Tìm kiếm theo tên bánh được viết chính xác
+- Tìm kiếm theo từng ký tự của món bánh.</t>
+  </si>
+  <si>
+    <t>Đưa ra gợi ý món bánh này hợp với từng bữa tiệc có hợp lý hay không?</t>
+  </si>
+  <si>
+    <t>Bạn có muốn lưu lại các món bánh mà bạn cảm thấy tâm đắc hay không?</t>
+  </si>
+  <si>
+    <t>Bạn có muốn chia sẻ bí quyết hay các công thức gia truyền để làm món bánh thêm phần ngon miệng tới mọi người không?</t>
   </si>
 </sst>
 </file>
@@ -138,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -161,11 +187,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -175,6 +212,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,15 +502,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N21"/>
+  <dimension ref="A2:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -812,11 +858,13 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>14</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -830,11 +878,13 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>15</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -848,6 +898,54 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
+    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>16</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>17</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>18</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>19</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>20</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>21</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
